--- a/AntennVerificator/AntennVerificator/bin/Release/Таблица.xlsx
+++ b/AntennVerificator/AntennVerificator/bin/Release/Таблица.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notron124\Source\Repos\notron124\AntennVerificatorV2\AntennVerificator\AntennVerificator\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B769BB-D929-4E2C-969D-C34B09E03DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C23CF32-A733-40AD-813B-9EEE13272D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" xr2:uid="{6592BFC8-4410-4472-8F57-90908ABFD28D}"/>
+    <workbookView xWindow="4020" yWindow="4515" windowWidth="28800" windowHeight="15345" xr2:uid="{735CC3B7-36ED-4149-8E56-073EE422AC23}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -391,7 +393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FD4DEA-652C-45CF-97CE-9E462BC413CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54376B1-0FF7-4567-A6A2-952DEC6F5065}">
   <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -411,7 +413,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>1.252</v>
+        <v>2.3220000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,7 +421,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>6.8369999999999997</v>
+        <v>5.843</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,7 +429,7 @@
         <v>150</v>
       </c>
       <c r="B4">
-        <v>3.6080000000000001</v>
+        <v>6.1070000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +437,7 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>3.782</v>
+        <v>8.1790000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +445,7 @@
         <v>250</v>
       </c>
       <c r="B6">
-        <v>1.57</v>
+        <v>4.1970000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +453,7 @@
         <v>300</v>
       </c>
       <c r="B7">
-        <v>6.7</v>
+        <v>2.2589999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +461,7 @@
         <v>350</v>
       </c>
       <c r="B8">
-        <v>1.48</v>
+        <v>8.343</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +469,7 @@
         <v>400</v>
       </c>
       <c r="B9">
-        <v>6.1520000000000001</v>
+        <v>4.0179999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +477,7 @@
         <v>450</v>
       </c>
       <c r="B10">
-        <v>6.6150000000000002</v>
+        <v>5.6230000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +485,7 @@
         <v>500</v>
       </c>
       <c r="B11">
-        <v>1.2350000000000001</v>
+        <v>2.605</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +493,7 @@
         <v>550</v>
       </c>
       <c r="B12">
-        <v>8.0239999999999991</v>
+        <v>8.9209999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +501,7 @@
         <v>600</v>
       </c>
       <c r="B13">
-        <v>5.0199999999999996</v>
+        <v>9.5069999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +509,7 @@
         <v>650</v>
       </c>
       <c r="B14">
-        <v>8.3789999999999996</v>
+        <v>3.5880000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +517,7 @@
         <v>700</v>
       </c>
       <c r="B15">
-        <v>4.5919999999999996</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +525,7 @@
         <v>750</v>
       </c>
       <c r="B16">
-        <v>8.4079999999999995</v>
+        <v>7.3680000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +533,7 @@
         <v>800</v>
       </c>
       <c r="B17">
-        <v>6.1959999999999997</v>
+        <v>7.6429999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +541,7 @@
         <v>850</v>
       </c>
       <c r="B18">
-        <v>5.7960000000000003</v>
+        <v>6.5140000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +549,7 @@
         <v>900</v>
       </c>
       <c r="B19">
-        <v>5.0609999999999999</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +557,7 @@
         <v>950</v>
       </c>
       <c r="B20">
-        <v>0.52900000000000003</v>
+        <v>7.1779999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +565,7 @@
         <v>1000</v>
       </c>
       <c r="B21">
-        <v>7.2999999999999995E-2</v>
+        <v>1.097</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +573,7 @@
         <v>1050</v>
       </c>
       <c r="B22">
-        <v>2.157</v>
+        <v>1.095</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +581,7 @@
         <v>1100</v>
       </c>
       <c r="B23">
-        <v>0.77</v>
+        <v>3.9470000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +589,7 @@
         <v>1150</v>
       </c>
       <c r="B24">
-        <v>5.7039999999999997</v>
+        <v>1.3720000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +597,7 @@
         <v>1200</v>
       </c>
       <c r="B25">
-        <v>9.7050000000000001</v>
+        <v>1.0780000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +605,7 @@
         <v>1250</v>
       </c>
       <c r="B26">
-        <v>5.8140000000000001</v>
+        <v>8.3089999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +613,7 @@
         <v>1300</v>
       </c>
       <c r="B27">
-        <v>1.7490000000000001</v>
+        <v>7.5890000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +621,7 @@
         <v>1350</v>
       </c>
       <c r="B28">
-        <v>7.7290000000000001</v>
+        <v>7.3090000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +629,7 @@
         <v>1400</v>
       </c>
       <c r="B29">
-        <v>3.762</v>
+        <v>7.1989999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +637,7 @@
         <v>1450</v>
       </c>
       <c r="B30">
-        <v>4.665</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +645,7 @@
         <v>1500</v>
       </c>
       <c r="B31">
-        <v>4.6879999999999997</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +653,7 @@
         <v>1550</v>
       </c>
       <c r="B32">
-        <v>6.8490000000000002</v>
+        <v>7.2009999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +661,7 @@
         <v>1600</v>
       </c>
       <c r="B33">
-        <v>4.13</v>
+        <v>8.5120000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +669,7 @@
         <v>1650</v>
       </c>
       <c r="B34">
-        <v>6.843</v>
+        <v>4.3440000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +677,7 @@
         <v>1700</v>
       </c>
       <c r="B35">
-        <v>7.3090000000000002</v>
+        <v>1.2090000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +685,7 @@
         <v>1750</v>
       </c>
       <c r="B36">
-        <v>4.7610000000000001</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +693,7 @@
         <v>1800</v>
       </c>
       <c r="B37">
-        <v>9.9860000000000007</v>
+        <v>9.0690000000000008</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +701,7 @@
         <v>1850</v>
       </c>
       <c r="B38">
-        <v>5.2549999999999999</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +709,7 @@
         <v>1900</v>
       </c>
       <c r="B39">
-        <v>1.2330000000000001</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +717,7 @@
         <v>1950</v>
       </c>
       <c r="B40">
-        <v>3.8039999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +725,7 @@
         <v>2000</v>
       </c>
       <c r="B41">
-        <v>0.95799999999999996</v>
+        <v>1.8009999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +733,7 @@
         <v>2050</v>
       </c>
       <c r="B42">
-        <v>4.7679999999999998</v>
+        <v>1.4990000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +741,7 @@
         <v>2100</v>
       </c>
       <c r="B43">
-        <v>9.8960000000000008</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +749,7 @@
         <v>2150</v>
       </c>
       <c r="B44">
-        <v>8.59</v>
+        <v>9.4350000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +757,7 @@
         <v>2200</v>
       </c>
       <c r="B45">
-        <v>9.1489999999999991</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +765,7 @@
         <v>2250</v>
       </c>
       <c r="B46">
-        <v>5.181</v>
+        <v>6.1269999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +773,7 @@
         <v>2300</v>
       </c>
       <c r="B47">
-        <v>6.0010000000000003</v>
+        <v>6.4050000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +781,7 @@
         <v>2350</v>
       </c>
       <c r="B48">
-        <v>0.58599999999999997</v>
+        <v>1.925</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +789,7 @@
         <v>2400</v>
       </c>
       <c r="B49">
-        <v>8.2629999999999999</v>
+        <v>1.6870000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +797,7 @@
         <v>2450</v>
       </c>
       <c r="B50">
-        <v>8.1240000000000006</v>
+        <v>3.3809999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +805,7 @@
         <v>2500</v>
       </c>
       <c r="B51">
-        <v>0.71099999999999997</v>
+        <v>9.7970000000000006</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +813,7 @@
         <v>2550</v>
       </c>
       <c r="B52">
-        <v>9.8930000000000007</v>
+        <v>3.298</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +821,7 @@
         <v>2600</v>
       </c>
       <c r="B53">
-        <v>4.5960000000000001</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +829,7 @@
         <v>2650</v>
       </c>
       <c r="B54">
-        <v>6.9020000000000001</v>
+        <v>3.8860000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +837,7 @@
         <v>2700</v>
       </c>
       <c r="B55">
-        <v>8.7729999999999997</v>
+        <v>5.6680000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +845,7 @@
         <v>2750</v>
       </c>
       <c r="B56">
-        <v>7.44</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +853,7 @@
         <v>2800</v>
       </c>
       <c r="B57">
-        <v>0.48199999999999998</v>
+        <v>8.3740000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +861,7 @@
         <v>2850</v>
       </c>
       <c r="B58">
-        <v>1.133</v>
+        <v>4.4720000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +869,7 @@
         <v>2900</v>
       </c>
       <c r="B59">
-        <v>3.903</v>
+        <v>5.0289999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +877,7 @@
         <v>2950</v>
       </c>
       <c r="B60">
-        <v>7.968</v>
+        <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +885,7 @@
         <v>3000</v>
       </c>
       <c r="B61">
-        <v>9.8209999999999997</v>
+        <v>6.6079999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +893,7 @@
         <v>3050</v>
       </c>
       <c r="B62">
-        <v>8.9710000000000001</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +901,7 @@
         <v>3100</v>
       </c>
       <c r="B63">
-        <v>7.718</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +909,7 @@
         <v>3150</v>
       </c>
       <c r="B64">
-        <v>1.4870000000000001</v>
+        <v>8.2569999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +917,7 @@
         <v>3200</v>
       </c>
       <c r="B65">
-        <v>1.927</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +925,7 @@
         <v>3250</v>
       </c>
       <c r="B66">
-        <v>4.3860000000000001</v>
+        <v>5.4039999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +933,7 @@
         <v>3300</v>
       </c>
       <c r="B67">
-        <v>3.895</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +941,7 @@
         <v>3350</v>
       </c>
       <c r="B68">
-        <v>8.1769999999999996</v>
+        <v>5.1619999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +949,7 @@
         <v>3400</v>
       </c>
       <c r="B69">
-        <v>1.07</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +957,7 @@
         <v>3450</v>
       </c>
       <c r="B70">
-        <v>9.8309999999999995</v>
+        <v>8.0239999999999991</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +965,7 @@
         <v>3500</v>
       </c>
       <c r="B71">
-        <v>8.4220000000000006</v>
+        <v>8.2989999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +973,7 @@
         <v>3550</v>
       </c>
       <c r="B72">
-        <v>0.94</v>
+        <v>9.8030000000000008</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +981,7 @@
         <v>3600</v>
       </c>
       <c r="B73">
-        <v>4.5629999999999997</v>
+        <v>6.3390000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +989,7 @@
         <v>3650</v>
       </c>
       <c r="B74">
-        <v>1.2569999999999999</v>
+        <v>4.968</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +997,7 @@
         <v>3700</v>
       </c>
       <c r="B75">
-        <v>9.5709999999999997</v>
+        <v>5.3769999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1005,7 @@
         <v>3750</v>
       </c>
       <c r="B76">
-        <v>5.3049999999999997</v>
+        <v>9.5980000000000008</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1013,7 @@
         <v>3800</v>
       </c>
       <c r="B77">
-        <v>2.2610000000000001</v>
+        <v>5.7649999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1021,7 @@
         <v>3850</v>
       </c>
       <c r="B78">
-        <v>2.1800000000000002</v>
+        <v>4.5119999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,7 +1029,7 @@
         <v>3900</v>
       </c>
       <c r="B79">
-        <v>6.5549999999999997</v>
+        <v>4.0419999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1037,7 @@
         <v>3950</v>
       </c>
       <c r="B80">
-        <v>4.5250000000000004</v>
+        <v>4.9509999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1045,7 @@
         <v>4000</v>
       </c>
       <c r="B81">
-        <v>9.8130000000000006</v>
+        <v>1.9039999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1053,7 @@
         <v>4050</v>
       </c>
       <c r="B82">
-        <v>1.1619999999999999</v>
+        <v>5.6639999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,7 +1061,7 @@
         <v>4100</v>
       </c>
       <c r="B83">
-        <v>9.4659999999999993</v>
+        <v>5.6219999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,7 +1069,7 @@
         <v>4150</v>
       </c>
       <c r="B84">
-        <v>5.6390000000000002</v>
+        <v>3.8170000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1075,7 +1077,7 @@
         <v>4200</v>
       </c>
       <c r="B85">
-        <v>3.9540000000000002</v>
+        <v>5.9640000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1083,7 +1085,7 @@
         <v>4250</v>
       </c>
       <c r="B86">
-        <v>4.7949999999999999</v>
+        <v>2.3119999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1091,7 +1093,7 @@
         <v>4300</v>
       </c>
       <c r="B87">
-        <v>2.2530000000000001</v>
+        <v>6.1660000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,7 +1101,7 @@
         <v>4350</v>
       </c>
       <c r="B88">
-        <v>7.2270000000000003</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1109,7 @@
         <v>4400</v>
       </c>
       <c r="B89">
-        <v>8.0690000000000008</v>
+        <v>8.6760000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1117,7 @@
         <v>4450</v>
       </c>
       <c r="B90">
-        <v>9.8680000000000003</v>
+        <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1125,7 @@
         <v>4500</v>
       </c>
       <c r="B91">
-        <v>4.2789999999999999</v>
+        <v>5.141</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1133,7 @@
         <v>4550</v>
       </c>
       <c r="B92">
-        <v>8.8529999999999998</v>
+        <v>4.5970000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1141,7 @@
         <v>4600</v>
       </c>
       <c r="B93">
-        <v>1.353</v>
+        <v>2.8109999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1149,7 @@
         <v>4650</v>
       </c>
       <c r="B94">
-        <v>3.2650000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1157,7 @@
         <v>4700</v>
       </c>
       <c r="B95">
-        <v>3.9830000000000001</v>
+        <v>3.9550000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +1165,7 @@
         <v>4750</v>
       </c>
       <c r="B96">
-        <v>1.9870000000000001</v>
+        <v>6.851</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1173,7 @@
         <v>4800</v>
       </c>
       <c r="B97">
-        <v>7.05</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1181,7 @@
         <v>4850</v>
       </c>
       <c r="B98">
-        <v>8.4090000000000007</v>
+        <v>7.0730000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1189,7 @@
         <v>4900</v>
       </c>
       <c r="B99">
-        <v>6.6630000000000003</v>
+        <v>9.423</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1197,7 @@
         <v>4950</v>
       </c>
       <c r="B100">
-        <v>4.7629999999999999</v>
+        <v>1.9259999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1205,7 @@
         <v>5000</v>
       </c>
       <c r="B101">
-        <v>1.286</v>
+        <v>5.718</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1213,7 @@
         <v>5050</v>
       </c>
       <c r="B102">
-        <v>7.8239999999999998</v>
+        <v>1.2430000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1221,7 @@
         <v>5100</v>
       </c>
       <c r="B103">
-        <v>9.516</v>
+        <v>9.5449999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1229,7 @@
         <v>5150</v>
       </c>
       <c r="B104">
-        <v>8.4320000000000004</v>
+        <v>3.6629999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1237,7 @@
         <v>5200</v>
       </c>
       <c r="B105">
-        <v>9.702</v>
+        <v>5.0819999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1245,7 @@
         <v>5250</v>
       </c>
       <c r="B106">
-        <v>9.7710000000000008</v>
+        <v>9.9939999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1253,7 @@
         <v>5300</v>
       </c>
       <c r="B107">
-        <v>5.33</v>
+        <v>6.9589999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1261,7 @@
         <v>5350</v>
       </c>
       <c r="B108">
-        <v>3.339</v>
+        <v>6.0670000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,7 +1269,7 @@
         <v>5400</v>
       </c>
       <c r="B109">
-        <v>7.3319999999999999</v>
+        <v>8.5090000000000003</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,7 +1277,7 @@
         <v>5450</v>
       </c>
       <c r="B110">
-        <v>3.468</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,7 +1285,7 @@
         <v>5500</v>
       </c>
       <c r="B111">
-        <v>5.1790000000000003</v>
+        <v>5.1820000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1293,7 @@
         <v>5550</v>
       </c>
       <c r="B112">
-        <v>8.3010000000000002</v>
+        <v>3.863</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1301,7 @@
         <v>5600</v>
       </c>
       <c r="B113">
-        <v>4.577</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,7 +1309,7 @@
         <v>5650</v>
       </c>
       <c r="B114">
-        <v>9.3780000000000001</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,7 +1317,7 @@
         <v>5700</v>
       </c>
       <c r="B115">
-        <v>8.1549999999999994</v>
+        <v>7.9649999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1325,7 @@
         <v>5750</v>
       </c>
       <c r="B116">
-        <v>8.6590000000000007</v>
+        <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1333,7 @@
         <v>5800</v>
       </c>
       <c r="B117">
-        <v>9.5060000000000002</v>
+        <v>9.3279999999999994</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1341,7 @@
         <v>5850</v>
       </c>
       <c r="B118">
-        <v>2.0790000000000002</v>
+        <v>7.3280000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,7 +1349,7 @@
         <v>5900</v>
       </c>
       <c r="B119">
-        <v>7.5330000000000004</v>
+        <v>2.2930000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1357,7 @@
         <v>5950</v>
       </c>
       <c r="B120">
-        <v>7.1319999999999997</v>
+        <v>7.7009999999999996</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,7 +1365,7 @@
         <v>6000</v>
       </c>
       <c r="B121">
-        <v>2.133</v>
+        <v>9.2379999999999995</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1373,7 @@
         <v>6050</v>
       </c>
       <c r="B122">
-        <v>6.6669999999999998</v>
+        <v>5.7830000000000004</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,7 +1381,7 @@
         <v>6100</v>
       </c>
       <c r="B123">
-        <v>0.108</v>
+        <v>6.4859999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1389,7 @@
         <v>6150</v>
       </c>
       <c r="B124">
-        <v>1.202</v>
+        <v>2.1179999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1397,7 @@
         <v>6200</v>
       </c>
       <c r="B125">
-        <v>5.5519999999999996</v>
+        <v>2.883</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,7 +1405,7 @@
         <v>6250</v>
       </c>
       <c r="B126">
-        <v>9.5690000000000008</v>
+        <v>3.702</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1413,7 @@
         <v>6300</v>
       </c>
       <c r="B127">
-        <v>9.5879999999999992</v>
+        <v>6.992</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1421,7 @@
         <v>6350</v>
       </c>
       <c r="B128">
-        <v>1.298</v>
+        <v>6.0350000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1429,7 @@
         <v>6400</v>
       </c>
       <c r="B129">
-        <v>7.274</v>
+        <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,7 +1437,7 @@
         <v>6450</v>
       </c>
       <c r="B130">
-        <v>7.5839999999999996</v>
+        <v>8.5269999999999992</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1443,7 +1445,7 @@
         <v>6500</v>
       </c>
       <c r="B131">
-        <v>8.2550000000000008</v>
+        <v>9.2430000000000003</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,7 +1453,7 @@
         <v>6550</v>
       </c>
       <c r="B132">
-        <v>3.8519999999999999</v>
+        <v>8.6920000000000002</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1459,7 +1461,7 @@
         <v>6600</v>
       </c>
       <c r="B133">
-        <v>5.5170000000000003</v>
+        <v>5.0890000000000004</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1469,7 @@
         <v>6650</v>
       </c>
       <c r="B134">
-        <v>1.7929999999999999</v>
+        <v>2.1160000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1475,7 +1477,7 @@
         <v>6700</v>
       </c>
       <c r="B135">
-        <v>3.238</v>
+        <v>9.2319999999999993</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1485,7 @@
         <v>6750</v>
       </c>
       <c r="B136">
-        <v>1.9890000000000001</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1491,7 +1493,7 @@
         <v>6800</v>
       </c>
       <c r="B137">
-        <v>1.6459999999999999</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1501,7 @@
         <v>6850</v>
       </c>
       <c r="B138">
-        <v>1.034</v>
+        <v>1.9590000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1509,7 @@
         <v>6900</v>
       </c>
       <c r="B139">
-        <v>5.9370000000000003</v>
+        <v>8.7349999999999994</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,7 +1517,7 @@
         <v>6950</v>
       </c>
       <c r="B140">
-        <v>4.1829999999999998</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1523,7 +1525,7 @@
         <v>7000</v>
       </c>
       <c r="B141">
-        <v>9.4649999999999999</v>
+        <v>5.3529999999999998</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1531,7 +1533,7 @@
         <v>7050</v>
       </c>
       <c r="B142">
-        <v>8.9139999999999997</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1541,7 @@
         <v>7100</v>
       </c>
       <c r="B143">
-        <v>9.8960000000000008</v>
+        <v>6.1159999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1549,7 @@
         <v>7150</v>
       </c>
       <c r="B144">
-        <v>4.6020000000000003</v>
+        <v>2.6059999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1557,7 @@
         <v>7200</v>
       </c>
       <c r="B145">
-        <v>4.6890000000000001</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1565,7 @@
         <v>7250</v>
       </c>
       <c r="B146">
-        <v>5.9779999999999998</v>
+        <v>1.2789999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1573,7 @@
         <v>7300</v>
       </c>
       <c r="B147">
-        <v>4.2750000000000004</v>
+        <v>4.1669999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1581,7 @@
         <v>7350</v>
       </c>
       <c r="B148">
-        <v>1.9750000000000001</v>
+        <v>2.7330000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1589,7 @@
         <v>7400</v>
       </c>
       <c r="B149">
-        <v>5.1100000000000003</v>
+        <v>2.339</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1597,7 @@
         <v>7450</v>
       </c>
       <c r="B150">
-        <v>5.3239999999999998</v>
+        <v>3.0110000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1605,7 @@
         <v>7500</v>
       </c>
       <c r="B151">
-        <v>2.4809999999999999</v>
+        <v>7.5229999999999997</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1613,7 @@
         <v>7550</v>
       </c>
       <c r="B152">
-        <v>4.9710000000000001</v>
+        <v>3.0270000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1621,7 @@
         <v>7600</v>
       </c>
       <c r="B153">
-        <v>0.876</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1629,7 @@
         <v>7650</v>
       </c>
       <c r="B154">
-        <v>9.5299999999999994</v>
+        <v>1.722</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1635,7 +1637,7 @@
         <v>7700</v>
       </c>
       <c r="B155">
-        <v>2.63</v>
+        <v>2.6880000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1645,7 @@
         <v>7750</v>
       </c>
       <c r="B156">
-        <v>4.6189999999999998</v>
+        <v>9.9350000000000005</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1651,7 +1653,7 @@
         <v>7800</v>
       </c>
       <c r="B157">
-        <v>7.7169999999999996</v>
+        <v>4.7569999999999997</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1661,7 @@
         <v>7850</v>
       </c>
       <c r="B158">
-        <v>8.3140000000000001</v>
+        <v>7.4269999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1669,7 @@
         <v>7900</v>
       </c>
       <c r="B159">
-        <v>2.88</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1677,7 @@
         <v>7950</v>
       </c>
       <c r="B160">
-        <v>0.13300000000000001</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1685,7 @@
         <v>8000</v>
       </c>
       <c r="B161">
-        <v>0.183</v>
+        <v>3.0019999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,7 +1693,7 @@
         <v>8050</v>
       </c>
       <c r="B162">
-        <v>4.032</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1699,7 +1701,7 @@
         <v>8100</v>
       </c>
       <c r="B163">
-        <v>6.0650000000000004</v>
+        <v>5.0540000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1707,7 +1709,7 @@
         <v>8150</v>
       </c>
       <c r="B164">
-        <v>9.7479999999999993</v>
+        <v>9.9819999999999993</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,7 +1717,7 @@
         <v>8200</v>
       </c>
       <c r="B165">
-        <v>5.2130000000000001</v>
+        <v>6.827</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1723,7 +1725,7 @@
         <v>8250</v>
       </c>
       <c r="B166">
-        <v>1.327</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,7 +1733,7 @@
         <v>8300</v>
       </c>
       <c r="B167">
-        <v>2.7839999999999998</v>
+        <v>8.7729999999999997</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,7 +1741,7 @@
         <v>8350</v>
       </c>
       <c r="B168">
-        <v>2.7850000000000001</v>
+        <v>8.3140000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1749,7 @@
         <v>8400</v>
       </c>
       <c r="B169">
-        <v>6.14</v>
+        <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1757,7 @@
         <v>8450</v>
       </c>
       <c r="B170">
-        <v>6.1660000000000004</v>
+        <v>7.3040000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1765,7 @@
         <v>8500</v>
       </c>
       <c r="B171">
-        <v>7.0129999999999999</v>
+        <v>4.8239999999999998</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1773,7 @@
         <v>8550</v>
       </c>
       <c r="B172">
-        <v>8.4719999999999995</v>
+        <v>7.3689999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1781,7 @@
         <v>8600</v>
       </c>
       <c r="B173">
-        <v>6.1420000000000003</v>
+        <v>8.5920000000000005</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1789,7 @@
         <v>8650</v>
       </c>
       <c r="B174">
-        <v>3.35</v>
+        <v>6.3230000000000004</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,7 +1797,7 @@
         <v>8700</v>
       </c>
       <c r="B175">
-        <v>7.6680000000000001</v>
+        <v>2.3479999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,7 +1805,7 @@
         <v>8750</v>
       </c>
       <c r="B176">
-        <v>3.2189999999999999</v>
+        <v>9.1389999999999993</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,7 +1813,7 @@
         <v>8800</v>
       </c>
       <c r="B177">
-        <v>6.7720000000000002</v>
+        <v>9.6669999999999998</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1819,7 +1821,7 @@
         <v>8850</v>
       </c>
       <c r="B178">
-        <v>5.5060000000000002</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1827,7 +1829,7 @@
         <v>8900</v>
       </c>
       <c r="B179">
-        <v>6.5129999999999999</v>
+        <v>7.0380000000000003</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1835,7 +1837,7 @@
         <v>8950</v>
       </c>
       <c r="B180">
-        <v>9.5739999999999998</v>
+        <v>1.6040000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1843,7 +1845,7 @@
         <v>9000</v>
       </c>
       <c r="B181">
-        <v>5.2930000000000001</v>
+        <v>9.5350000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,7 +1853,7 @@
         <v>9050</v>
       </c>
       <c r="B182">
-        <v>7.6130000000000004</v>
+        <v>4.2590000000000003</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,7 +1861,7 @@
         <v>9100</v>
       </c>
       <c r="B183">
-        <v>6.1879999999999997</v>
+        <v>3.6960000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,7 +1869,7 @@
         <v>9150</v>
       </c>
       <c r="B184">
-        <v>1.9510000000000001</v>
+        <v>8.0020000000000007</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,7 +1877,7 @@
         <v>9200</v>
       </c>
       <c r="B185">
-        <v>5.1029999999999998</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,7 +1885,7 @@
         <v>9250</v>
       </c>
       <c r="B186">
-        <v>3.2839999999999998</v>
+        <v>6.2160000000000002</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,7 +1893,7 @@
         <v>9300</v>
       </c>
       <c r="B187">
-        <v>2.976</v>
+        <v>3.9119999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,7 +1901,7 @@
         <v>9350</v>
       </c>
       <c r="B188">
-        <v>5.9870000000000001</v>
+        <v>3.3679999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1907,7 +1909,7 @@
         <v>9400</v>
       </c>
       <c r="B189">
-        <v>9.1630000000000003</v>
+        <v>9.4280000000000008</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1915,7 +1917,7 @@
         <v>9450</v>
       </c>
       <c r="B190">
-        <v>8.6189999999999998</v>
+        <v>9.2970000000000006</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1923,7 +1925,7 @@
         <v>9500</v>
       </c>
       <c r="B191">
-        <v>4.2720000000000002</v>
+        <v>5.9050000000000002</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1931,7 +1933,7 @@
         <v>9550</v>
       </c>
       <c r="B192">
-        <v>3.3319999999999999</v>
+        <v>8.6929999999999996</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1939,7 +1941,7 @@
         <v>9600</v>
       </c>
       <c r="B193">
-        <v>8.1539999999999999</v>
+        <v>1.1779999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1947,7 +1949,7 @@
         <v>9650</v>
       </c>
       <c r="B194">
-        <v>5.8040000000000003</v>
+        <v>7.3559999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1955,7 +1957,7 @@
         <v>9700</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>2.968</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1963,7 +1965,7 @@
         <v>9750</v>
       </c>
       <c r="B196">
-        <v>5.4320000000000004</v>
+        <v>4.4290000000000003</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,7 +1973,7 @@
         <v>9800</v>
       </c>
       <c r="B197">
-        <v>2.8490000000000002</v>
+        <v>5.0449999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1979,7 +1981,7 @@
         <v>9850</v>
       </c>
       <c r="B198">
-        <v>0.14799999999999999</v>
+        <v>6.1340000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +1989,7 @@
         <v>9900</v>
       </c>
       <c r="B199">
-        <v>9.3889999999999993</v>
+        <v>5.7789999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +1997,7 @@
         <v>9950</v>
       </c>
       <c r="B200">
-        <v>3.3620000000000001</v>
+        <v>8.5890000000000004</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,7 +2005,7 @@
         <v>10000</v>
       </c>
       <c r="B201">
-        <v>3.1930000000000001</v>
+        <v>2.5049999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2013,7 @@
         <v>10050</v>
       </c>
       <c r="B202">
-        <v>1.4910000000000001</v>
+        <v>5.8529999999999998</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2021,7 @@
         <v>10100</v>
       </c>
       <c r="B203">
-        <v>5.835</v>
+        <v>1.8879999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2027,7 +2029,7 @@
         <v>10150</v>
       </c>
       <c r="B204">
-        <v>8.9440000000000008</v>
+        <v>5.0350000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,7 +2037,7 @@
         <v>10200</v>
       </c>
       <c r="B205">
-        <v>8.3109999999999999</v>
+        <v>8.1869999999999994</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,7 +2045,7 @@
         <v>10250</v>
       </c>
       <c r="B206">
-        <v>4.0090000000000003</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2053,7 @@
         <v>10300</v>
       </c>
       <c r="B207">
-        <v>8.8290000000000006</v>
+        <v>4.4349999999999996</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +2061,7 @@
         <v>10350</v>
       </c>
       <c r="B208">
-        <v>7.5270000000000001</v>
+        <v>8.4559999999999995</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2069,7 @@
         <v>10400</v>
       </c>
       <c r="B209">
-        <v>1.863</v>
+        <v>9.3740000000000006</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +2077,7 @@
         <v>10450</v>
       </c>
       <c r="B210">
-        <v>9.41</v>
+        <v>3.5489999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2085,7 @@
         <v>10500</v>
       </c>
       <c r="B211">
-        <v>7.8470000000000004</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,7 +2093,7 @@
         <v>10550</v>
       </c>
       <c r="B212">
-        <v>2.2109999999999999</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2101,7 @@
         <v>10600</v>
       </c>
       <c r="B213">
-        <v>1.8009999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +2109,7 @@
         <v>10650</v>
       </c>
       <c r="B214">
-        <v>3.3050000000000002</v>
+        <v>9.1769999999999996</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2117,7 @@
         <v>10700</v>
       </c>
       <c r="B215">
-        <v>4.84</v>
+        <v>1.8440000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2123,7 +2125,7 @@
         <v>10750</v>
       </c>
       <c r="B216">
-        <v>2.57</v>
+        <v>8.7430000000000003</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,7 +2133,7 @@
         <v>10800</v>
       </c>
       <c r="B217">
-        <v>7.8449999999999998</v>
+        <v>7.2279999999999998</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2139,7 +2141,7 @@
         <v>10850</v>
       </c>
       <c r="B218">
-        <v>4.1139999999999999</v>
+        <v>7.0510000000000002</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2147,7 +2149,7 @@
         <v>10900</v>
       </c>
       <c r="B219">
-        <v>4.6449999999999996</v>
+        <v>8.9779999999999998</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,7 +2157,7 @@
         <v>10950</v>
       </c>
       <c r="B220">
-        <v>1.929</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2163,7 +2165,7 @@
         <v>11000</v>
       </c>
       <c r="B221">
-        <v>8.3510000000000009</v>
+        <v>2.5779999999999998</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,7 +2173,7 @@
         <v>11050</v>
       </c>
       <c r="B222">
-        <v>6.7969999999999997</v>
+        <v>5.4059999999999997</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,7 +2181,7 @@
         <v>11100</v>
       </c>
       <c r="B223">
-        <v>3.621</v>
+        <v>8.8859999999999992</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2187,7 +2189,7 @@
         <v>11150</v>
       </c>
       <c r="B224">
-        <v>7.52</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2195,7 +2197,7 @@
         <v>11200</v>
       </c>
       <c r="B225">
-        <v>1.8939999999999999</v>
+        <v>1.399</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,7 +2205,7 @@
         <v>11250</v>
       </c>
       <c r="B226">
-        <v>3.681</v>
+        <v>6.1310000000000002</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2211,7 +2213,7 @@
         <v>11300</v>
       </c>
       <c r="B227">
-        <v>0.318</v>
+        <v>6.1909999999999998</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2219,7 +2221,7 @@
         <v>11350</v>
       </c>
       <c r="B228">
-        <v>0.33900000000000002</v>
+        <v>1.2370000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2227,7 +2229,7 @@
         <v>11400</v>
       </c>
       <c r="B229">
-        <v>9.3490000000000002</v>
+        <v>3.355</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2235,7 +2237,7 @@
         <v>11450</v>
       </c>
       <c r="B230">
-        <v>2.2349999999999999</v>
+        <v>7.9189999999999996</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2243,7 +2245,7 @@
         <v>11500</v>
       </c>
       <c r="B231">
-        <v>0.37</v>
+        <v>4.0940000000000003</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2251,7 +2253,7 @@
         <v>11550</v>
       </c>
       <c r="B232">
-        <v>6.6239999999999997</v>
+        <v>3.5329999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2261,7 @@
         <v>11600</v>
       </c>
       <c r="B233">
-        <v>6.117</v>
+        <v>8.1020000000000003</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,7 +2269,7 @@
         <v>11650</v>
       </c>
       <c r="B234">
-        <v>3.1509999999999998</v>
+        <v>8.4489999999999998</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,7 +2277,7 @@
         <v>11700</v>
       </c>
       <c r="B235">
-        <v>6.3810000000000002</v>
+        <v>9.0990000000000002</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2283,7 +2285,7 @@
         <v>11750</v>
       </c>
       <c r="B236">
-        <v>3.802</v>
+        <v>3.6829999999999998</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2291,7 +2293,7 @@
         <v>11800</v>
       </c>
       <c r="B237">
-        <v>1.778</v>
+        <v>2.371</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2299,7 +2301,7 @@
         <v>11850</v>
       </c>
       <c r="B238">
-        <v>7.2439999999999998</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2307,7 +2309,7 @@
         <v>11900</v>
       </c>
       <c r="B239">
-        <v>3.64</v>
+        <v>9.8149999999999995</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2315,7 +2317,7 @@
         <v>11950</v>
       </c>
       <c r="B240">
-        <v>1.0940000000000001</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,7 +2325,7 @@
         <v>12000</v>
       </c>
       <c r="B241">
-        <v>4.4550000000000001</v>
+        <v>1.7809999999999999</v>
       </c>
     </row>
   </sheetData>
